--- a/data/original/Larvae.xlsx
+++ b/data/original/Larvae.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{F98A0A30-A346-49C5-A2F3-5DF01623BBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BB537E1-DF5D-4EFB-9443-888112DD30FF}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{F98A0A30-A346-49C5-A2F3-5DF01623BBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FC9025B-017C-41C1-8693-5981F9C22E4C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{46C13484-1FF9-4DFC-AA32-BC60FC8665E5}"/>
+    <workbookView xWindow="28680" yWindow="-7515" windowWidth="29040" windowHeight="15720" xr2:uid="{46C13484-1FF9-4DFC-AA32-BC60FC8665E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Lisso larvae" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,12 +125,27 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -211,21 +229,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -254,16 +257,20 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEE8C3E0-BFFC-4C4F-A6EF-BEAECF2FDB75}" name="Tabla1" displayName="Tabla1" ref="A1:F501" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F501" xr:uid="{DEE25006-57C4-468D-9204-AB3F3B6C19D3}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E5400A99-6876-4766-8AD1-FADB1C5595A3}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{909CE776-F84E-4BE5-A6C4-F97962D04069}" name="Field" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B27F255F-A962-43BA-8F77-7CAA9303B848}" name="Treatment" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{0A2420D5-37B8-48B6-AC97-BE0BD3B95F70}" name="Repeat" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{0299E61D-981B-4C11-B285-EC3D621BD3B0}" name="Abundance" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{02EC2731-B94A-418B-AE20-B517AAD4F3B3}" name="Observations" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E5400A99-6876-4766-8AD1-FADB1C5595A3}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{909CE776-F84E-4BE5-A6C4-F97962D04069}" name="Field" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B27F255F-A962-43BA-8F77-7CAA9303B848}" name="Treatment" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0A2420D5-37B8-48B6-AC97-BE0BD3B95F70}" name="Repeat" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{0299E61D-981B-4C11-B285-EC3D621BD3B0}" name="Abundance" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{02EC2731-B94A-418B-AE20-B517AAD4F3B3}" name="Observations" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -569,7 +576,7 @@
   <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9610,8 +9617,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>